--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_8_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_8_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1376 +518,1046 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_8</t>
+          <t>model_8_8_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9621986765958961</v>
+        <v>0.9462401370678452</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6944645817967369</v>
+        <v>0.6998444382986754</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7938973013004249</v>
+        <v>0.4554466135564577</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7865382976906176</v>
+        <v>0.8127118480007939</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8382998406216352</v>
+        <v>0.6673913724945788</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2527776236623321</v>
+        <v>0.3594924509687267</v>
       </c>
       <c r="H2" t="n">
-        <v>2.04311674838646</v>
+        <v>2.007141623186036</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6041536658690934</v>
+        <v>1.153589806352003</v>
       </c>
       <c r="J2" t="n">
-        <v>0.629817293112499</v>
+        <v>0.5699762021783878</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6169854195894763</v>
+        <v>0.8617830342654793</v>
       </c>
       <c r="L2" t="n">
-        <v>1.521875136288843</v>
+        <v>1.826089378196752</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5027699510336036</v>
+        <v>0.5995768932911997</v>
       </c>
       <c r="N2" t="n">
-        <v>1.022127603943866</v>
+        <v>1.031469188057847</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5241739087263801</v>
+        <v>0.6251021229338787</v>
       </c>
       <c r="P2" t="n">
-        <v>132.7504902692419</v>
+        <v>132.0461242014754</v>
       </c>
       <c r="Q2" t="n">
-        <v>211.977418885675</v>
+        <v>211.2730528179084</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_9</t>
+          <t>model_8_8_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9621964020112378</v>
+        <v>0.9457316424767893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6943691357536754</v>
+        <v>0.6997092565159939</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7836279808378219</v>
+        <v>0.4114680041683973</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7744259074345388</v>
+        <v>0.8036387640615098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.829672088839821</v>
+        <v>0.6440841713741104</v>
       </c>
       <c r="G3" t="n">
-        <v>0.252792833820416</v>
+        <v>0.3628927566405195</v>
       </c>
       <c r="H3" t="n">
-        <v>2.043754996515901</v>
+        <v>2.008045584389282</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6342563653612029</v>
+        <v>1.246754731500922</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6655548177441969</v>
+        <v>0.5975884236166172</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6499055915526999</v>
+        <v>0.9221715775587694</v>
       </c>
       <c r="L3" t="n">
-        <v>1.60908503113269</v>
+        <v>1.759973620818307</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5027850771655976</v>
+        <v>0.6024058072765563</v>
       </c>
       <c r="N3" t="n">
-        <v>1.022128935408056</v>
+        <v>1.031766843428221</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5241896788091286</v>
+        <v>0.6280514696442512</v>
       </c>
       <c r="P3" t="n">
-        <v>132.7503699286812</v>
+        <v>132.0272958492384</v>
       </c>
       <c r="Q3" t="n">
-        <v>211.9772985451142</v>
+        <v>211.2542244656714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_7</t>
+          <t>model_8_8_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9617942231499984</v>
+        <v>0.9461627897574435</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6942114788474569</v>
+        <v>0.6993660349423713</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8043133885219202</v>
+        <v>0.499440425491248</v>
       </c>
       <c r="E4" t="n">
-        <v>0.797971437126864</v>
+        <v>0.8214097553153679</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8467213158254402</v>
+        <v>0.6904844744851431</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2554822057173869</v>
+        <v>0.3600096727895342</v>
       </c>
       <c r="H4" t="n">
-        <v>2.044809248973727</v>
+        <v>2.010340708632487</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5736207455406145</v>
+        <v>1.060392675907194</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5960838933803168</v>
+        <v>0.5435057601074897</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5848523194604656</v>
+        <v>0.8019492180073418</v>
       </c>
       <c r="L4" t="n">
-        <v>1.434863277768236</v>
+        <v>1.900441631673045</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5054524762204523</v>
+        <v>0.6000080606038007</v>
       </c>
       <c r="N4" t="n">
-        <v>1.022364357180489</v>
+        <v>1.031514464532228</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5269706345640256</v>
+        <v>0.6255516459316165</v>
       </c>
       <c r="P4" t="n">
-        <v>132.7292050334109</v>
+        <v>132.0432487580663</v>
       </c>
       <c r="Q4" t="n">
-        <v>211.9561336498439</v>
+        <v>211.2701773744993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_10</t>
+          <t>model_8_8_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9618954424885757</v>
+        <v>0.9448012963341051</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6940195027572463</v>
+        <v>0.699118170695411</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7736557755849374</v>
+        <v>0.3683219836859503</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7620225667760898</v>
+        <v>0.7944136035840492</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8210459437141844</v>
+        <v>0.6210280125308847</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2548053515342482</v>
+        <v>0.369113985580499</v>
       </c>
       <c r="H5" t="n">
-        <v>2.046092993972934</v>
+        <v>2.011998177993219</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6634881240831549</v>
+        <v>1.338155888214444</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7021507895487054</v>
+        <v>0.6256634613448523</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6828196331358447</v>
+        <v>0.9819096747796484</v>
       </c>
       <c r="L5" t="n">
-        <v>1.689841433779182</v>
+        <v>1.701046617098476</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5047824794247995</v>
+        <v>0.6075475171379593</v>
       </c>
       <c r="N5" t="n">
-        <v>1.022305106835956</v>
+        <v>1.032311436292231</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5262721146176974</v>
+        <v>0.6334120727392608</v>
       </c>
       <c r="P5" t="n">
-        <v>132.734510705246</v>
+        <v>131.9932995572609</v>
       </c>
       <c r="Q5" t="n">
-        <v>211.9614393216791</v>
+        <v>211.2202281736939</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_6</t>
+          <t>model_8_8_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9608468908974857</v>
+        <v>0.9435780219744503</v>
       </c>
       <c r="C6" t="n">
-        <v>0.693490988989082</v>
+        <v>0.6981982323377722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8146667979569697</v>
+        <v>0.3265947402844087</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8082303604194565</v>
+        <v>0.7852153653837939</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8546647789566746</v>
+        <v>0.5985676160347317</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2618170208520038</v>
+        <v>0.3772940268561711</v>
       </c>
       <c r="H6" t="n">
-        <v>2.049627167974231</v>
+        <v>2.018149810026677</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5432715540749244</v>
+        <v>1.426551486944557</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5658150103512443</v>
+        <v>0.6536565661950509</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5545431289695011</v>
+        <v>1.04010416236234</v>
       </c>
       <c r="L6" t="n">
-        <v>1.339889574575827</v>
+        <v>1.648433755148283</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5116805847909454</v>
+        <v>0.6142426449345333</v>
       </c>
       <c r="N6" t="n">
-        <v>1.022918893133179</v>
+        <v>1.033027499332029</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5334638866103266</v>
+        <v>0.6403922259869601</v>
       </c>
       <c r="P6" t="n">
-        <v>132.6802188258123</v>
+        <v>131.9494609668444</v>
       </c>
       <c r="Q6" t="n">
-        <v>211.9071474422454</v>
+        <v>211.1763895832774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_11</t>
+          <t>model_8_8_0</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9613811447646496</v>
+        <v>0.9452924679536063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6934899367361698</v>
+        <v>0.6980800558908209</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7640883872063782</v>
+        <v>0.5423459815385149</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7496259531875288</v>
+        <v>0.8294607687859731</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8125779910289145</v>
+        <v>0.7127527663691392</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2582444627822656</v>
+        <v>0.3658295186992571</v>
       </c>
       <c r="H7" t="n">
-        <v>2.0496342043943</v>
+        <v>2.018940056471593</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6915332336240321</v>
+        <v>0.9695009225471712</v>
       </c>
       <c r="J7" t="n">
-        <v>0.738726913179506</v>
+        <v>0.5190040175643628</v>
       </c>
       <c r="K7" t="n">
-        <v>0.715130073401769</v>
+        <v>0.7442524700557669</v>
       </c>
       <c r="L7" t="n">
-        <v>1.763259520526499</v>
+        <v>1.984282171272644</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5081775898072106</v>
+        <v>0.6048384236300278</v>
       </c>
       <c r="N7" t="n">
-        <v>1.022606159162156</v>
+        <v>1.032023921197889</v>
       </c>
       <c r="O7" t="n">
-        <v>0.529811761877935</v>
+        <v>0.6305876475121002</v>
       </c>
       <c r="P7" t="n">
-        <v>132.7076972250401</v>
+        <v>132.0111757000021</v>
       </c>
       <c r="Q7" t="n">
-        <v>211.9346258414731</v>
+        <v>211.2381043164351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_12</t>
+          <t>model_8_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9607203780457109</v>
+        <v>0.9421622886315455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.69283826774048</v>
+        <v>0.6970509130862</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7549984362543085</v>
+        <v>0.2866888666415937</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7374586673281793</v>
+        <v>0.7761852713517372</v>
       </c>
       <c r="F8" t="n">
-        <v>0.804382052319625</v>
+        <v>0.5769506780993916</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2626630128743597</v>
+        <v>0.386761042239028</v>
       </c>
       <c r="H8" t="n">
-        <v>2.053991917969138</v>
+        <v>2.025821939144859</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7181788196591187</v>
+        <v>1.511088669512781</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7746264069133039</v>
+        <v>0.6811379559506998</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7464026132862113</v>
+        <v>1.096113263825417</v>
       </c>
       <c r="L8" t="n">
-        <v>1.829889593443146</v>
+        <v>1.601389749468057</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5125065978837342</v>
+        <v>0.6219011515016096</v>
       </c>
       <c r="N8" t="n">
-        <v>1.022992949436657</v>
+        <v>1.033856221288851</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5343250647905584</v>
+        <v>0.648376771033891</v>
       </c>
       <c r="P8" t="n">
-        <v>132.6737667765318</v>
+        <v>131.8998964771503</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.9006953929649</v>
+        <v>211.1268250935833</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_5</t>
+          <t>model_8_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9591871461876065</v>
+        <v>0.940631868806961</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6921540812573598</v>
+        <v>0.6957561061784046</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8246831213563395</v>
+        <v>0.248869772071281</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8166933374062102</v>
+        <v>0.7674310236063833</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8617842891882874</v>
+        <v>0.5563487054133609</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2729157413693877</v>
+        <v>0.3969949666529601</v>
       </c>
       <c r="H9" t="n">
-        <v>2.058567076132152</v>
+        <v>2.034480318899325</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5139104707973084</v>
+        <v>1.591205188972344</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5408450546177082</v>
+        <v>0.7077798595071335</v>
       </c>
       <c r="K9" t="n">
-        <v>0.527377824838632</v>
+        <v>1.149492608391375</v>
       </c>
       <c r="L9" t="n">
-        <v>1.236601724610161</v>
+        <v>1.559265212037303</v>
       </c>
       <c r="M9" t="n">
-        <v>0.52241338169058</v>
+        <v>0.6300753658515464</v>
       </c>
       <c r="N9" t="n">
-        <v>1.023890451012133</v>
+        <v>1.034752076795925</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5446536008939313</v>
+        <v>0.6568989786116611</v>
       </c>
       <c r="P9" t="n">
-        <v>132.5971843422176</v>
+        <v>131.8476633536627</v>
       </c>
       <c r="Q9" t="n">
-        <v>211.8241129586506</v>
+        <v>211.0745919700957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_13</t>
+          <t>model_8_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9599648640804708</v>
+        <v>0.9390461881142735</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6921094797790905</v>
+        <v>0.6943761282670973</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7464282768481046</v>
+        <v>0.2132893844318503</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7256831425201039</v>
+        <v>0.7590344037333838</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7965372452120194</v>
+        <v>0.5368720081276022</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2677151382387421</v>
+        <v>0.4075984207463496</v>
       </c>
       <c r="H10" t="n">
-        <v>2.058865326422708</v>
+        <v>2.043708237546451</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7433007285667155</v>
+        <v>1.666579199140501</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8093700123439963</v>
+        <v>0.7333333900175317</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7763353704553559</v>
+        <v>1.199956384422313</v>
       </c>
       <c r="L10" t="n">
-        <v>1.890278427187233</v>
+        <v>1.521505957324603</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5174119618241756</v>
+        <v>0.638434351164119</v>
       </c>
       <c r="N10" t="n">
-        <v>1.023435201513871</v>
+        <v>1.03568028012823</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5394392602294475</v>
+        <v>0.6656138232344749</v>
       </c>
       <c r="P10" t="n">
-        <v>132.6356635615756</v>
+        <v>131.7949457043187</v>
       </c>
       <c r="Q10" t="n">
-        <v>211.8625921780086</v>
+        <v>211.0218743207517</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_14</t>
+          <t>model_8_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9591544122554885</v>
+        <v>0.9374497356380785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6913379409453596</v>
+        <v>0.6929587750662521</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7384012676298186</v>
+        <v>0.1800175584887221</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7144126410875166</v>
+        <v>0.7510491986496973</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7890963557913064</v>
+        <v>0.518580719429144</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2731346333241865</v>
+        <v>0.4182739058056532</v>
       </c>
       <c r="H11" t="n">
-        <v>2.064024610156477</v>
+        <v>2.053186084926814</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7668304886125141</v>
+        <v>1.737062718667177</v>
       </c>
       <c r="J11" t="n">
-        <v>0.842623549758425</v>
+        <v>0.7576348571345465</v>
       </c>
       <c r="K11" t="n">
-        <v>0.804726933574444</v>
+        <v>1.247348787900862</v>
       </c>
       <c r="L11" t="n">
-        <v>1.944947557868138</v>
+        <v>1.487638819823511</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5226228404157117</v>
+        <v>0.6467409881905223</v>
       </c>
       <c r="N11" t="n">
-        <v>1.023909612338251</v>
+        <v>1.036614788894783</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5448719767106311</v>
+        <v>0.6742740909962013</v>
       </c>
       <c r="P11" t="n">
-        <v>132.5955808860042</v>
+        <v>131.7432375680212</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.8225095024373</v>
+        <v>210.9701661844543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_15</t>
+          <t>model_8_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9583192572658229</v>
+        <v>0.9358754233379085</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6905496368614754</v>
+        <v>0.6915401737395561</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7309235833086238</v>
+        <v>0.1490608308548023</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7037221808253312</v>
+        <v>0.7435104538108365</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7820906707216492</v>
+        <v>0.501498021789058</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2787193185856156</v>
+        <v>0.4288013394059316</v>
       </c>
       <c r="H12" t="n">
-        <v>2.069296003195217</v>
+        <v>2.062672278530489</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7887499997269551</v>
+        <v>1.802641900296613</v>
       </c>
       <c r="J12" t="n">
-        <v>0.874165679665633</v>
+        <v>0.7805776066175146</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8314579248043299</v>
+        <v>1.291609753457064</v>
       </c>
       <c r="L12" t="n">
-        <v>1.994389360805911</v>
+        <v>1.457236900376242</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5279387451074372</v>
+        <v>0.6548292444644875</v>
       </c>
       <c r="N12" t="n">
-        <v>1.024398483551713</v>
+        <v>1.037536337558298</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5504141904705231</v>
+        <v>0.6827066810847479</v>
       </c>
       <c r="P12" t="n">
-        <v>132.55510006024</v>
+        <v>131.6935230912317</v>
       </c>
       <c r="Q12" t="n">
-        <v>211.7820286766731</v>
+        <v>210.9204517076647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_4</t>
+          <t>model_8_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9566047957164228</v>
+        <v>0.934346987784238</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6900152097928669</v>
+        <v>0.6901469445160109</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8340059383014993</v>
+        <v>0.120378417050008</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8225944066762797</v>
+        <v>0.7364387708520929</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8676469187599584</v>
+        <v>0.4856194016289439</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2901839308608239</v>
+        <v>0.4390219949911253</v>
       </c>
       <c r="H13" t="n">
-        <v>2.072869719463813</v>
+        <v>2.071988808763567</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4865822792249369</v>
+        <v>1.863403142464025</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5234339900851209</v>
+        <v>0.8020989412711418</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5050082923651904</v>
+        <v>1.332750975692224</v>
       </c>
       <c r="L13" t="n">
-        <v>1.124835648411634</v>
+        <v>1.429932325449246</v>
       </c>
       <c r="M13" t="n">
-        <v>0.538687229160692</v>
+        <v>0.6625873489519138</v>
       </c>
       <c r="N13" t="n">
-        <v>1.025402070800143</v>
+        <v>1.038431031540934</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5616202597423543</v>
+        <v>0.6907950641416942</v>
       </c>
       <c r="P13" t="n">
-        <v>132.4744806254038</v>
+        <v>131.6464115293531</v>
       </c>
       <c r="Q13" t="n">
-        <v>211.7014092418368</v>
+        <v>210.8733401457862</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_16</t>
+          <t>model_8_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9574818381150211</v>
+        <v>0.9328809584382796</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6897640006445731</v>
+        <v>0.6887982850106037</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7239883125385234</v>
+        <v>0.09390171258090863</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6936565514944739</v>
+        <v>0.7298388582150679</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7755349866782799</v>
+        <v>0.4709195569637981</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2843191443029877</v>
+        <v>0.4488253399779936</v>
       </c>
       <c r="H14" t="n">
-        <v>2.074549556195166</v>
+        <v>2.08100730108623</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8090795213003651</v>
+        <v>1.91949177792514</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9038642501822595</v>
+        <v>0.8221845318405687</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8564718857413123</v>
+        <v>1.370838011599175</v>
       </c>
       <c r="L14" t="n">
-        <v>2.039069178294441</v>
+        <v>1.405399377553967</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5332158515113627</v>
+        <v>0.6699442812488167</v>
       </c>
       <c r="N14" t="n">
-        <v>1.024888680127793</v>
+        <v>1.039289195060519</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5559159542191799</v>
+        <v>0.6984651962774255</v>
       </c>
       <c r="P14" t="n">
-        <v>132.5153158484137</v>
+        <v>131.602242929482</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.7422444648467</v>
+        <v>210.829171545915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_17</t>
+          <t>model_8_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9566587030410086</v>
+        <v>0.9314881843721082</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6889951568171384</v>
+        <v>0.6875074396268988</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7175815769206407</v>
+        <v>0.06953471101999686</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6842360476659994</v>
+        <v>0.7237077696729082</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7694317298823122</v>
+        <v>0.4573574202889782</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2898234523330971</v>
+        <v>0.4581388265716163</v>
       </c>
       <c r="H15" t="n">
-        <v>2.079690818409421</v>
+        <v>2.089639190110862</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8278597354082836</v>
+        <v>1.971111188090989</v>
       </c>
       <c r="J15" t="n">
-        <v>0.931659382315172</v>
+        <v>0.8408433446121015</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8797595588617277</v>
+        <v>1.405977266351545</v>
       </c>
       <c r="L15" t="n">
-        <v>2.079415324932026</v>
+        <v>1.383349907793786</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5383525353642324</v>
+        <v>0.6768595323784812</v>
       </c>
       <c r="N15" t="n">
-        <v>1.025370515293068</v>
+        <v>1.040104477440717</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5612713173380677</v>
+        <v>0.7056748439642232</v>
       </c>
       <c r="P15" t="n">
-        <v>132.4769666528895</v>
+        <v>131.5611660520255</v>
       </c>
       <c r="Q15" t="n">
-        <v>211.7038952693226</v>
+        <v>210.7880946684586</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_18</t>
+          <t>model_8_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9558616669632091</v>
+        <v>0.930175198322746</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6882530713691257</v>
+        <v>0.6862831661405393</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7116820314034804</v>
+        <v>0.04716817340134449</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6754658281542827</v>
+        <v>0.7180339290724411</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7637747181066599</v>
+        <v>0.4448817052374937</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2951532362553566</v>
+        <v>0.4669187703294465</v>
       </c>
       <c r="H16" t="n">
-        <v>2.084653147217272</v>
+        <v>2.097825912551408</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8451532112998799</v>
+        <v>2.018492786374266</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9575358550178311</v>
+        <v>0.8581106094267679</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9013445331588554</v>
+        <v>1.43830162201344</v>
       </c>
       <c r="L16" t="n">
-        <v>2.115835628704813</v>
+        <v>1.363523802314526</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5432800716530624</v>
+        <v>0.6833145471372949</v>
       </c>
       <c r="N16" t="n">
-        <v>1.025837072997146</v>
+        <v>1.040873054640344</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5664086290481195</v>
+        <v>0.7124046620650423</v>
       </c>
       <c r="P16" t="n">
-        <v>132.4405212251474</v>
+        <v>131.5231999515596</v>
       </c>
       <c r="Q16" t="n">
-        <v>211.6674498415805</v>
+        <v>210.7501285679927</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_19</t>
+          <t>model_8_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9550988663460162</v>
+        <v>0.9289452569430126</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6875446079173664</v>
+        <v>0.6851304255533627</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7062657196222608</v>
+        <v>0.02668426900271104</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6673354504057278</v>
+        <v>0.7128009017946895</v>
       </c>
       <c r="F17" t="n">
-        <v>0.758550697144959</v>
+        <v>0.4334345069151867</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3002540874948998</v>
+        <v>0.4751433939990832</v>
       </c>
       <c r="H17" t="n">
-        <v>2.089390645581361</v>
+        <v>2.105534294165741</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8610301728280916</v>
+        <v>2.061886187089078</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9815244789732198</v>
+        <v>0.8740363419508492</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9212773815703239</v>
+        <v>1.467961109135059</v>
       </c>
       <c r="L17" t="n">
-        <v>2.148685240262144</v>
+        <v>1.345700388580078</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5479544575007123</v>
+        <v>0.6893064586953203</v>
       </c>
       <c r="N17" t="n">
-        <v>1.0262835904316</v>
+        <v>1.041593020326042</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5712820131786165</v>
+        <v>0.7186516617030595</v>
       </c>
       <c r="P17" t="n">
-        <v>132.4062524089528</v>
+        <v>131.4882772768028</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.6331810253859</v>
+        <v>210.7152058932358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_20</t>
+          <t>model_8_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9543753449514567</v>
+        <v>0.9277994173492864</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6868741155857441</v>
+        <v>0.6840518471537871</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7013028838240056</v>
+        <v>0.007963740295341304</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6598253764850048</v>
+        <v>0.7079897853905086</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7537407406594419</v>
+        <v>0.4229559554901617</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3050922783918285</v>
+        <v>0.4828056286384357</v>
       </c>
       <c r="H18" t="n">
-        <v>2.093874230890252</v>
+        <v>2.1127467528901</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8755778495908919</v>
+        <v>2.101544027117185</v>
       </c>
       <c r="J18" t="n">
-        <v>1.003682900725938</v>
+        <v>0.8886780682267574</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9396303196987262</v>
+        <v>1.49511084938531</v>
       </c>
       <c r="L18" t="n">
-        <v>2.178312663231908</v>
+        <v>1.32966796567592</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5523515894716231</v>
+        <v>0.6948421609534324</v>
       </c>
       <c r="N18" t="n">
-        <v>1.026707115150367</v>
+        <v>1.042263755697979</v>
       </c>
       <c r="O18" t="n">
-        <v>0.575866340160847</v>
+        <v>0.724423030266783</v>
       </c>
       <c r="P18" t="n">
-        <v>132.37428199206</v>
+        <v>131.4562822630071</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.6012106084931</v>
+        <v>210.6832108794401</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_3</t>
+          <t>model_8_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9528412489203905</v>
+        <v>0.9267363899287939</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6868449492381261</v>
+        <v>0.6830476272294277</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8421829873819329</v>
+        <v>-0.009119078744755704</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8249991003431468</v>
+        <v>0.703576453090504</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8717176566669849</v>
+        <v>0.4133804296717196</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3153507856154308</v>
+        <v>0.48991409789406</v>
       </c>
       <c r="H19" t="n">
-        <v>2.094069266391072</v>
+        <v>2.119461976148299</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4626127038185685</v>
+        <v>2.13773251918977</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5163389578632006</v>
+        <v>0.9021092135312322</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4894759271204001</v>
+        <v>1.519920866360501</v>
       </c>
       <c r="L19" t="n">
-        <v>1.003980085398319</v>
+        <v>1.315248988023687</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5615610257268847</v>
+        <v>0.6999386386634617</v>
       </c>
       <c r="N19" t="n">
-        <v>1.027605122583186</v>
+        <v>1.042886015651438</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5854678411836562</v>
+        <v>0.7297364755840915</v>
       </c>
       <c r="P19" t="n">
-        <v>132.3081393092528</v>
+        <v>131.4270504273328</v>
       </c>
       <c r="Q19" t="n">
-        <v>211.5350679256858</v>
+        <v>210.6539790437659</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_8_21</t>
+          <t>model_8_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9536944318587351</v>
+        <v>0.9257539678369739</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6862439271667558</v>
+        <v>0.6821166993271202</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6967673877120137</v>
+        <v>-0.02468116804145892</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6529107970704086</v>
+        <v>0.6995358723684362</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7493250934042082</v>
+        <v>0.4046455757321772</v>
       </c>
       <c r="G20" t="n">
-        <v>0.309645547378174</v>
+        <v>0.496483558945698</v>
       </c>
       <c r="H20" t="n">
-        <v>2.098088303749778</v>
+        <v>2.125687095317558</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8888728555266903</v>
+        <v>2.17069947527733</v>
       </c>
       <c r="J20" t="n">
-        <v>1.024084320010043</v>
+        <v>0.9144059596413076</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9564787259402727</v>
+        <v>1.542552717459319</v>
       </c>
       <c r="L20" t="n">
-        <v>2.205022965137373</v>
+        <v>1.30227973647032</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5564580373920157</v>
+        <v>0.7046158946161362</v>
       </c>
       <c r="N20" t="n">
-        <v>1.027105698424155</v>
+        <v>1.043461091997869</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5801476080707297</v>
+        <v>0.7346128520059259</v>
       </c>
       <c r="P20" t="n">
-        <v>132.3446540624653</v>
+        <v>131.4004098199023</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.5715826788983</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_8_8_22</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9530574396925576</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.6856552081190342</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.6926287608149335</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.64656145903242</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.745280520937702</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.3139051169264827</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.102025070732694</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.9010045094415187</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.042817998477323</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.9719112539594208</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.229097199254195</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.5602723595952978</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.027478571887283</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.584124313866941</v>
-      </c>
-      <c r="P21" t="n">
-        <v>132.3173290282629</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>211.5442576446959</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_8_8_23</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9524646482589909</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6851078635309622</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.6888583529100816</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.6407457077847971</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.7415836561620484</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.3178691159722967</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.105685166513422</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.9120567944038738</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.059977332768046</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.9860170635859595</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.250786855525057</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.5637988257989694</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.027825571750835</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.5878009090376944</v>
-      </c>
-      <c r="P22" t="n">
-        <v>132.2922311318382</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>211.5191597482712</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_8_8_24</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9519152239293908</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.6846011025817493</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.6854274716425234</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.6354282615027094</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.7382098368631944</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.3215431189941993</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.109073879314227</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.9221138169855057</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.075666421665134</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.9988902563133194</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.270333155896662</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.5670477219724979</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.028147185992552</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.5911881174474722</v>
-      </c>
-      <c r="P23" t="n">
-        <v>132.2692472522392</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>211.4961758686722</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_8_8_2</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.947580708208782</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.6823617886839711</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8486518422086696</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.8227781371381349</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.8733437946749545</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.3505280455765195</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.124048181659763</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.4436503982194325</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5228918946136802</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.4832712118930645</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.8733814837688355</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.592054090076675</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.030684463487542</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.6172590584121622</v>
-      </c>
-      <c r="P24" t="n">
-        <v>132.0966291195968</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>211.3235577360299</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_8_8_1</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9404388091673788</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.6762250700328897</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.8527151662226569</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.8145555330856122</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.871725423722242</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.3982859573518044</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.165084447536536</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.4317394814087669</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5471526316483256</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.4894462910342932</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.7317803151878765</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.6310990075668036</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.034865087316656</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.6579661988739672</v>
-      </c>
-      <c r="P25" t="n">
-        <v>131.841170091753</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>211.0680987081861</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_8_8_0</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.930945307776467</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.6680272419644231</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.8534618604634809</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.7985895202335096</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.8658393198392053</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.4617690448663855</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.2199033615779</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.4295506790994156</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5942602434003224</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.5119053924228392</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.5762775694410904</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.6795359040303798</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.040422258862556</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.7084651542981962</v>
-      </c>
-      <c r="P26" t="n">
-        <v>131.5453808315602</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>210.7723094479933</v>
+        <v>210.6273384363353</v>
       </c>
     </row>
   </sheetData>
